--- a/data/pensum-academico.xlsx
+++ b/data/pensum-academico.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\sistema-gestion\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04283EF8-5FD4-4356-BC49-49ACB44F6930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F780B1D6-FAE3-4211-AF99-B541D07801E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="501">
   <si>
     <t>SEMESTRE</t>
   </si>
@@ -1516,6 +1516,18 @@
   </si>
   <si>
     <t>HORAS_LABORATORIO</t>
+  </si>
+  <si>
+    <t>Pasantías</t>
+  </si>
+  <si>
+    <t>P-C</t>
+  </si>
+  <si>
+    <t>P-H</t>
+  </si>
+  <si>
+    <t>TEG</t>
   </si>
 </sst>
 </file>
@@ -1835,8 +1847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="C296" sqref="C296"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D298" sqref="D298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3658,6 +3670,9 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>497</v>
+      </c>
       <c r="B60" t="s">
         <v>123</v>
       </c>
@@ -4516,6 +4531,9 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>499</v>
+      </c>
       <c r="B87" t="s">
         <v>183</v>
       </c>
@@ -4545,6 +4563,9 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>498</v>
+      </c>
       <c r="B88" t="s">
         <v>186</v>
       </c>
@@ -6357,6 +6378,9 @@
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>497</v>
+      </c>
       <c r="B145" t="s">
         <v>123</v>
       </c>
@@ -8262,6 +8286,9 @@
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>497</v>
+      </c>
       <c r="B205" t="s">
         <v>123</v>
       </c>
@@ -11097,6 +11124,9 @@
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>500</v>
+      </c>
       <c r="B295" t="s">
         <v>489</v>
       </c>
